--- a/P0039/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0039/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0039\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241DC48C-21FF-4085-94C7-3E7491B63243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{241DC48C-21FF-4085-94C7-3E7491B63243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4DDE8BC-5111-48B0-BBF3-E90E9AC6CA7A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24810" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,135 +38,153 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
   <si>
+    <t>CODIGO DE PROYECTO</t>
+  </si>
+  <si>
+    <t>CODIGO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>NOMBRE DEL PRODUCTO</t>
+  </si>
+  <si>
+    <t>DIRECTORIO</t>
+  </si>
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>AUTOR 1</t>
+  </si>
+  <si>
+    <t>AUTOR 2</t>
+  </si>
+  <si>
+    <t>AUTOR 3</t>
+  </si>
+  <si>
+    <t>AUTOR 4</t>
+  </si>
+  <si>
+    <t>AUTOR 5</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>TIPO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>FORMATO</t>
+  </si>
+  <si>
+    <t>RESUMEN</t>
+  </si>
+  <si>
+    <t>CONTIENE ANEXOS</t>
+  </si>
+  <si>
+    <t>ANEXOS</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>PALABRAS CLAVE</t>
+  </si>
+  <si>
+    <t>P0039</t>
+  </si>
+  <si>
     <t>PR0001</t>
   </si>
   <si>
+    <t>Gestión contractual</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0039/01_CONTRATACION/GESTION_CONTRACTUAL/</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Fondo de adaptación</t>
+  </si>
+  <si>
+    <t>Esta carpeta contiene instructivos para la gestión de los contratos que celebra el Fondo de Adaptación.</t>
+  </si>
+  <si>
+    <t>Informe</t>
+  </si>
+  <si>
+    <t>pdf, doc, xslx</t>
+  </si>
+  <si>
+    <t>En la carpeta hay tres (3) instructivos en pdf para la gestión de contratos; siete (7) documentos de word con formatos para diligenciar relacionados con la liquidación, el reinicio, la suspensión o la modificación de contratos; un (1) documento de excel para diligenciar un formato de certificado de cumplimiento de pago</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Documentos útiles para los funcionarios y contratistas del Fondo de adaptación en la gestión de contratos.</t>
+  </si>
+  <si>
+    <t>Instructivo, gestión de contratos, liquidación, modificación, suspensión</t>
+  </si>
+  <si>
     <t>PR0002</t>
   </si>
   <si>
+    <t>Gestión de proyectos</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0039/02_PRODUCTOS/GESTION_PROYECTOS/</t>
+  </si>
+  <si>
+    <t>Esta carpeta contiene instructivos y manuales para la gestión de proyectos y obras que contrata el Fondo de Adaptación</t>
+  </si>
+  <si>
+    <t>En la carpeta hay siete (7) instructivos en pdf para el segumiento de lor proyectos, la supervisión de obras y la realización de auditorías, entre otros; seis (6) documentos de word con formatos para diligenciar relacionados con actas de entrega y de inicio de proyectos, encuestas de satisfacción ciudadana, etc; 19 documentos de excel para el seguimiento de los proyectos como actas de reuniones, mapas de actores, diagnóstico de los territorios y las viviendas, entre otros.</t>
+  </si>
+  <si>
+    <t>Documentos útiles para los funcionarios y contratistas del Fondo de adaptación en la gestión de proyectos y obras</t>
+  </si>
+  <si>
+    <t>Instructivo, auditoría, obra, proyecto, acta</t>
+  </si>
+  <si>
     <t>PR0003</t>
   </si>
   <si>
+    <t>MANUAL OPERATIVO DE GESTIÓN DEL RIESGO DE DESASTRES</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0039/02_PRODUCTOS/Manual Operativo Gestion del Riesgo_normalizado/</t>
+  </si>
+  <si>
+    <t>El documento es el manual para la gestión de riesgo por desastres naturales</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>El instructivo señala el marco normativo, el objetivo del manual, los usuarios del mismo y las obligaciones de quienes están llamados a atender las contingencias</t>
+  </si>
+  <si>
+    <t>El documento es util para la subgerencia de gestión del riesgo del Fondo de Adaptacion</t>
+  </si>
+  <si>
+    <t>Gestión del riesgo, manual, marco normativo</t>
+  </si>
+  <si>
     <t>PR0004</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>CODIGO DE PROYECTO</t>
-  </si>
-  <si>
-    <t>CODIGO DE PRODUCTO</t>
-  </si>
-  <si>
-    <t>NOMBRE DEL PRODUCTO</t>
-  </si>
-  <si>
-    <t>DIRECTORIO</t>
-  </si>
-  <si>
-    <t>AÑO</t>
-  </si>
-  <si>
-    <t>AUTOR 1</t>
-  </si>
-  <si>
-    <t>AUTOR 2</t>
-  </si>
-  <si>
-    <t>AUTOR 3</t>
-  </si>
-  <si>
-    <t>AUTOR 4</t>
-  </si>
-  <si>
-    <t>AUTOR 5</t>
-  </si>
-  <si>
-    <t>DESCRIPCION</t>
-  </si>
-  <si>
-    <t>TIPO DE PRODUCTO</t>
-  </si>
-  <si>
-    <t>FORMATO</t>
-  </si>
-  <si>
-    <t>RESUMEN</t>
-  </si>
-  <si>
-    <t>CONTIENE ANEXOS</t>
-  </si>
-  <si>
-    <t>ANEXOS</t>
-  </si>
-  <si>
-    <t>OBSERVACIONES</t>
-  </si>
-  <si>
-    <t>PALABRAS CLAVE</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>P0039</t>
-  </si>
-  <si>
-    <t>Gestión contractual</t>
-  </si>
-  <si>
-    <t>Fondo de adaptación</t>
-  </si>
-  <si>
-    <t>Esta carpeta contiene instructivos para la gestión de los contratos que celebra el Fondo de Adaptación.</t>
-  </si>
-  <si>
-    <t>pdf, doc, xslx</t>
-  </si>
-  <si>
-    <t>Documentos útiles para los funcionarios y contratistas del Fondo de adaptación en la gestión de contratos.</t>
-  </si>
-  <si>
-    <t>Instructivo, gestión de contratos, liquidación, modificación, suspensión</t>
-  </si>
-  <si>
-    <t>Gestión de proyectos</t>
-  </si>
-  <si>
-    <t>Esta carpeta contiene instructivos y manuales para la gestión de proyectos y obras que contrata el Fondo de Adaptación</t>
-  </si>
-  <si>
-    <t>En la carpeta hay siete (7) instructivos en pdf para el segumiento de lor proyectos, la supervisión de obras y la realización de auditorías, entre otros; seis (6) documentos de word con formatos para diligenciar relacionados con actas de entrega y de inicio de proyectos, encuestas de satisfacción ciudadana, etc; 19 documentos de excel para el seguimiento de los proyectos como actas de reuniones, mapas de actores, diagnóstico de los territorios y las viviendas, entre otros.</t>
-  </si>
-  <si>
-    <t>Documentos útiles para los funcionarios y contratistas del Fondo de adaptación en la gestión de proyectos y obras</t>
-  </si>
-  <si>
-    <t>Instructivo, auditoría, obra, proyecto, acta</t>
-  </si>
-  <si>
-    <t>MANUAL OPERATIVO DE GESTIÓN DEL RIESGO DE DESASTRES</t>
-  </si>
-  <si>
-    <t>El documento es el manual para la gestión de riesgo por desastres naturales</t>
-  </si>
-  <si>
-    <t>pdf</t>
-  </si>
-  <si>
-    <t>El instructivo señala el marco normativo, el objetivo del manual, los usuarios del mismo y las obligaciones de quienes están llamados a atender las contingencias</t>
-  </si>
-  <si>
-    <t>El documento es util para la subgerencia de gestión del riesgo del Fondo de Adaptacion</t>
-  </si>
-  <si>
-    <t>Gestión del riesgo, manual, marco normativo</t>
-  </si>
-  <si>
     <t>Gestión financiera</t>
   </si>
   <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0039/03_OTROS/GESTION_FINANCIERA/</t>
+  </si>
+  <si>
     <t>Esta carpeta contiene instructivos para la gestión financiera de los proyectos y contratos que celebra el fondo de adaptación</t>
   </si>
   <si>
@@ -180,31 +198,13 @@
   </si>
   <si>
     <t>Gestión financiera, facturación, tributario, pagos a terceros, registro de inmuebles</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0039/01_CONTRATACION/GESTION_CONTRACTUAL/</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0039/02_PRODUCTOS/GESTION_PROYECTOS/</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0039/02_PRODUCTOS/Manual Operativo Gestion del Riesgo_normalizado/</t>
-  </si>
-  <si>
-    <t>En la carpeta hay tres (3) instructivos en pdf para la gestión de contratos; siete (7) documentos de word con formatos para diligenciar relacionados con la liquidación, el reinicio, la suspensión o la modificación de contratos; un (1) documento de excel para diligenciar un formato de certificado de cumplimiento de pago</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0039/03_OTROS/GESTION_FINANCIERA/</t>
-  </si>
-  <si>
-    <t>Informe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,12 +227,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -263,11 +269,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -554,10 +562,10 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
@@ -574,284 +582,284 @@
     <col min="16" max="16" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18" s="3" customFormat="1">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>22</v>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="3" spans="1:18" s="3" customFormat="1">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="3" customFormat="1">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2013</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2013</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -861,6 +869,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1004,37 +1021,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>